--- a/VT_REG_PRI_V04.xlsx
+++ b/VT_REG_PRI_V04.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_004\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u446122\Documents\OFFLINE\Repos\demos004_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F94C905-FFD6-40F7-B2DA-BC54932E2EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -34,7 +33,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,12 +49,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,14 +72,14 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="Q3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="R3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="S3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="T3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+    <comment ref="R9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+    <comment ref="S9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+    <comment ref="T9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+    <comment ref="L10" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -808,14 +807,14 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="S3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
+    <comment ref="T3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1028,7 +1027,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000004000000}">
+    <comment ref="U3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1081,7 +1080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000005000000}">
+    <comment ref="V3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000006000000}">
+    <comment ref="T9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000007000000}">
+    <comment ref="U9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1232,7 +1231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000008000000}">
+    <comment ref="V9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1295,7 +1294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000009000000}">
+    <comment ref="N10" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1543,14 +1542,14 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1664,7 +1663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
+    <comment ref="S3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1690,7 +1689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
+    <comment ref="T3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1763,7 +1762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000004000000}">
+    <comment ref="U3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1816,7 +1815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000005000000}">
+    <comment ref="V3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1849,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000006000000}">
+    <comment ref="T9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1942,7 +1941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000007000000}">
+    <comment ref="U9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1967,7 +1966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000008000000}">
+    <comment ref="V9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2030,7 +2029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000009000000}">
+    <comment ref="N10" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2278,14 +2277,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2399,7 +2398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2425,7 +2424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="Q3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2498,7 +2497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="R3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2551,7 +2550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="S3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2584,7 +2583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="I8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2631,7 +2630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="Q8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2724,7 +2723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="R8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2749,7 +2748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="S8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2812,7 +2811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="K9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3060,14 +3059,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3181,7 +3180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3207,7 +3206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="Q3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3280,7 +3279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="R3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3333,7 +3332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="S3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3366,7 +3365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="I8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3413,7 +3412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="Q8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3506,7 +3505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="R8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3531,7 +3530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="S8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3594,7 +3593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="K9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3842,14 +3841,14 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3963,7 +3962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3989,7 +3988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="Q3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4062,7 +4061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="R3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4115,7 +4114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="S3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4148,7 +4147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="I8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4195,7 +4194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="Q8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4288,7 +4287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="R8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4313,7 +4312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="S8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4376,7 +4375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="K9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4624,14 +4623,14 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4745,7 +4744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4771,7 +4770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="Q3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4844,7 +4843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="R3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4897,7 +4896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="S3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4930,7 +4929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="I8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4977,7 +4976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="Q8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5070,7 +5069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="R8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5095,7 +5094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="S8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5158,7 +5157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
+    <comment ref="K9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5406,14 +5405,14 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5527,7 +5526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5553,7 +5552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="Q3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5626,7 +5625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="R3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5679,7 +5678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
+    <comment ref="S3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5712,7 +5711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
+    <comment ref="I8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5759,7 +5758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
+    <comment ref="Q8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5852,7 +5851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
+    <comment ref="R8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5877,7 +5876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
+    <comment ref="S8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5940,7 +5939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
+    <comment ref="K9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6188,14 +6187,14 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6309,7 +6308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="N3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6335,7 +6334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="O3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6408,7 +6407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="P3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6461,7 +6460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
+    <comment ref="Q3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6494,7 +6493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
+    <comment ref="O14" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6587,7 +6586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
+    <comment ref="P14" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6612,7 +6611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
+    <comment ref="Q14" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6675,7 +6674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
+    <comment ref="I15" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6923,14 +6922,14 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="T3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7044,7 +7043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="Y3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7070,7 +7069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="Z3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7143,7 +7142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="AA3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7196,7 +7195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
+    <comment ref="AB3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7229,7 +7228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
+    <comment ref="Z9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7322,7 +7321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
+    <comment ref="AA9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7347,7 +7346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
+    <comment ref="AB9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7410,7 +7409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
+    <comment ref="T10" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7658,14 +7657,14 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7779,7 +7778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+    <comment ref="Q3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7805,7 +7804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+    <comment ref="R3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7878,7 +7877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
+    <comment ref="S3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7931,7 +7930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
+    <comment ref="T3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7964,7 +7963,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
+    <comment ref="R9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8057,7 +8056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
+    <comment ref="S9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8082,7 +8081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
+    <comment ref="T9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8145,7 +8144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000009000000}">
+    <comment ref="L10" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -9052,7 +9051,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -10069,29 +10068,29 @@
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Input" xfId="8" builtinId="20"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 9 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normale_B2020" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 10" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="11"/>
+    <cellStyle name="Normal 4" xfId="12"/>
+    <cellStyle name="Normal 4 2" xfId="13"/>
+    <cellStyle name="Normal 8" xfId="14"/>
+    <cellStyle name="Normal 9 2" xfId="15"/>
+    <cellStyle name="Normale_B2020" xfId="16"/>
     <cellStyle name="Percent" xfId="17" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Percent 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Percent 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Percent 3 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Percent 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Percent 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Percent 4 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Percent 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Percent 6" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 2" xfId="18"/>
+    <cellStyle name="Percent 3" xfId="19"/>
+    <cellStyle name="Percent 3 2" xfId="20"/>
+    <cellStyle name="Percent 3 3" xfId="21"/>
+    <cellStyle name="Percent 4" xfId="22"/>
+    <cellStyle name="Percent 4 2" xfId="23"/>
+    <cellStyle name="Percent 4 3" xfId="24"/>
+    <cellStyle name="Percent 5" xfId="25"/>
+    <cellStyle name="Percent 6" xfId="26"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -13454,31 +13453,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="P1" s="36" t="s">
         <v>118</v>
       </c>
@@ -13492,7 +13491,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C2" s="10"/>
       <c r="D2" s="78" t="s">
         <v>47</v>
@@ -13531,7 +13530,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="C3" s="12"/>
       <c r="D3" s="79" t="s">
         <v>55</v>
@@ -13562,7 +13561,7 @@
       </c>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
         <v>62</v>
       </c>
@@ -13577,7 +13576,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="80" t="s">
         <v>63</v>
       </c>
@@ -13615,7 +13614,7 @@
       <c r="M5" s="9"/>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="80" t="s">
         <v>65</v>
       </c>
@@ -13652,7 +13651,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B7" s="80" t="s">
         <v>67</v>
       </c>
@@ -13690,7 +13689,7 @@
       <c r="M7" s="9"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" s="175" t="s">
         <v>208</v>
       </c>
@@ -13735,7 +13734,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="72"/>
       <c r="C9" s="13" t="s">
         <v>69</v>
@@ -13751,7 +13750,7 @@
       <c r="L9" s="103"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="80" t="s">
         <v>70</v>
       </c>
@@ -13788,7 +13787,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="80" t="s">
         <v>54</v>
       </c>
@@ -13825,7 +13824,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="80" t="s">
         <v>73</v>
       </c>
@@ -13862,7 +13861,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="80" t="s">
         <v>75</v>
       </c>
@@ -13885,7 +13884,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" s="72"/>
       <c r="C14" s="102" t="s">
         <v>77</v>
@@ -13928,7 +13927,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="72"/>
       <c r="C15" s="13" t="s">
         <v>78</v>
@@ -13944,7 +13943,7 @@
       <c r="L15" s="103"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="80" t="s">
         <v>79</v>
@@ -13982,7 +13981,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="80" t="s">
         <v>81</v>
@@ -14020,7 +14019,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="80" t="s">
         <v>83</v>
@@ -14058,7 +14057,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="80" t="s">
         <v>85</v>
@@ -14096,7 +14095,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="80" t="s">
         <v>87</v>
@@ -14134,7 +14133,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="80" t="s">
         <v>89</v>
@@ -14178,7 +14177,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="80" t="s">
         <v>109</v>
@@ -14214,7 +14213,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="80" t="s">
         <v>110</v>
@@ -14250,7 +14249,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="175" t="s">
         <v>112</v>
@@ -14297,7 +14296,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="203"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="D25" s="14"/>
       <c r="F25" s="14"/>
@@ -14309,7 +14308,7 @@
       <c r="L25" s="14"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="D26" s="14"/>
       <c r="F26" s="14"/>
@@ -14321,7 +14320,7 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="C27" s="94" t="s">
         <v>196</v>
@@ -14337,7 +14336,7 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="D28" s="14"/>
       <c r="F28" s="14"/>
@@ -14349,7 +14348,7 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="D29" s="14"/>
       <c r="F29" s="14"/>
@@ -14361,7 +14360,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="D30" s="14"/>
       <c r="F30" s="14"/>
@@ -14373,7 +14372,7 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="D31" s="14"/>
       <c r="F31" s="14"/>
@@ -14385,7 +14384,7 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="D32" s="14"/>
       <c r="F32" s="14"/>
@@ -14397,7 +14396,7 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="14"/>
       <c r="F33" s="14"/>
@@ -14409,7 +14408,7 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="D34" s="14"/>
       <c r="F34" s="14"/>
@@ -14421,7 +14420,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="D35" s="14"/>
       <c r="F35" s="14"/>
@@ -14433,7 +14432,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="D36" s="37" t="s">
         <v>47</v>
@@ -14452,7 +14451,7 @@
       <c r="L36" s="42"/>
       <c r="M36" s="42"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="C37" s="38" t="s">
         <v>154</v>
@@ -14474,7 +14473,7 @@
       <c r="L37" s="43"/>
       <c r="M37" s="43"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="C38" s="40" t="s">
         <v>155</v>
@@ -14496,17 +14495,17 @@
       <c r="L38" s="43"/>
       <c r="M38" s="43"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="C39" s="42"/>
       <c r="D39" s="43"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
     </row>
-    <row r="41" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="47" t="s">
         <v>130</v>
@@ -14540,7 +14539,7 @@
       </c>
       <c r="L41" s="48"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="80" t="s">
         <v>79</v>
@@ -14561,7 +14560,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="80" t="s">
         <v>79</v>
@@ -14582,7 +14581,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
       <c r="B44" s="80" t="s">
         <v>79</v>
@@ -14605,7 +14604,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="80"/>
       <c r="C45" s="111"/>
@@ -14620,7 +14619,7 @@
       <c r="L45" s="11"/>
       <c r="N45" s="111"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="80" t="s">
         <v>81</v>
@@ -14641,7 +14640,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="80" t="s">
         <v>81</v>
@@ -14662,7 +14661,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="80"/>
       <c r="C48" s="111"/>
@@ -14677,7 +14676,7 @@
       <c r="L48" s="11"/>
       <c r="N48" s="111"/>
     </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="80" t="s">
         <v>87</v>
@@ -14700,13 +14699,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="C52" s="125" t="s">
         <v>144</v>
@@ -14718,7 +14717,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="36" t="s">
         <v>158</v>
@@ -14733,7 +14732,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="80" t="s">
         <v>79</v>
@@ -14744,7 +14743,7 @@
       <c r="D54" s="122"/>
       <c r="E54" s="122"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="80" t="s">
         <v>87</v>
@@ -14755,7 +14754,7 @@
       <c r="D55" s="122"/>
       <c r="E55" s="122"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="80" t="s">
         <v>89</v>
@@ -14766,7 +14765,7 @@
       <c r="D56" s="122"/>
       <c r="E56" s="122"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="80" t="s">
         <v>54</v>
@@ -14785,39 +14784,39 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="49" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="49" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="49" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="49" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="49"/>
+    <col min="4" max="4" width="13.81640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="2.7265625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1796875" style="49" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.54296875" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.26953125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" style="49" customWidth="1"/>
+    <col min="18" max="18" width="14.26953125" style="49" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="49" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.453125" style="49" customWidth="1"/>
+    <col min="21" max="16384" width="8.81640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -14838,7 +14837,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="31" x14ac:dyDescent="0.35">
       <c r="B2" s="34" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -14875,7 +14874,7 @@
       <c r="S2" s="218"/>
       <c r="T2" s="218"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="G3" s="51"/>
       <c r="L3" s="221" t="s">
         <v>7</v>
@@ -14905,7 +14904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="51" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" s="51" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -14939,7 +14938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -14966,7 +14965,7 @@
       <c r="S5" s="223"/>
       <c r="T5" s="223"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -14987,7 +14986,7 @@
       <c r="S8" s="219"/>
       <c r="T8" s="219"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -15043,7 +15042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -15099,7 +15098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -15134,7 +15133,7 @@
       <c r="S11" s="211"/>
       <c r="T11" s="211"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="str">
         <f>N12</f>
         <v>DTPSCOA</v>
@@ -15188,7 +15187,7 @@
       <c r="S12" s="224"/>
       <c r="T12" s="224"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D13" s="51"/>
       <c r="E13" s="156"/>
       <c r="F13" s="171"/>
@@ -15206,7 +15205,7 @@
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="53"/>
       <c r="D14" s="53"/>
       <c r="E14" s="151"/>
@@ -15225,7 +15224,7 @@
       <c r="S14" s="51"/>
       <c r="T14" s="51"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="53"/>
       <c r="E15" s="151"/>
       <c r="F15" s="172"/>
@@ -15243,7 +15242,7 @@
       <c r="S15" s="51"/>
       <c r="T15" s="51"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
@@ -15259,7 +15258,7 @@
       <c r="S16" s="51"/>
       <c r="T16" s="51"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
@@ -15275,7 +15274,7 @@
       <c r="S17" s="51"/>
       <c r="T17" s="51"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I18" s="149"/>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
@@ -15287,7 +15286,7 @@
       <c r="S18" s="51"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I19" s="149"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
@@ -15299,7 +15298,7 @@
       <c r="S19" s="51"/>
       <c r="T19" s="51"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
@@ -15310,7 +15309,7 @@
       <c r="S20" s="51"/>
       <c r="T20" s="51"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
@@ -15321,7 +15320,7 @@
       <c r="S21" s="51"/>
       <c r="T21" s="51"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -15332,28 +15331,28 @@
       <c r="S22" s="51"/>
       <c r="T22" s="51"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="139"/>
       <c r="C23" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="174"/>
       <c r="C24" s="50" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K28" s="50"/>
     </row>
   </sheetData>
@@ -15364,39 +15363,39 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="49" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="49" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="49" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="49" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="49"/>
+    <col min="4" max="4" width="13.81640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="2.7265625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1796875" style="49" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.54296875" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.453125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" style="49" customWidth="1"/>
+    <col min="18" max="18" width="14.26953125" style="49" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="49" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.453125" style="49" customWidth="1"/>
+    <col min="21" max="16384" width="8.81640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -15416,7 +15415,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="31" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -15452,7 +15451,7 @@
       <c r="S2" s="218"/>
       <c r="T2" s="218"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="L3" s="221" t="s">
         <v>7</v>
       </c>
@@ -15481,7 +15480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="51" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" s="51" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -15515,7 +15514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -15542,7 +15541,7 @@
       <c r="S5" s="223"/>
       <c r="T5" s="223"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -15563,7 +15562,7 @@
       <c r="S8" s="219"/>
       <c r="T8" s="219"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -15619,7 +15618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -15675,7 +15674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -15710,7 +15709,7 @@
       <c r="S11" s="211"/>
       <c r="T11" s="211"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="str">
         <f>N12</f>
         <v>DTPSELC</v>
@@ -15764,7 +15763,7 @@
       <c r="S12" s="224"/>
       <c r="T12" s="224"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D13" s="51"/>
       <c r="E13" s="156"/>
       <c r="F13" s="171"/>
@@ -15782,7 +15781,7 @@
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="53"/>
       <c r="D14" s="53"/>
       <c r="E14" s="151"/>
@@ -15801,7 +15800,7 @@
       <c r="S14" s="51"/>
       <c r="T14" s="51"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="53"/>
       <c r="E15" s="151"/>
       <c r="F15" s="172"/>
@@ -15819,7 +15818,7 @@
       <c r="S15" s="51"/>
       <c r="T15" s="51"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
@@ -15835,7 +15834,7 @@
       <c r="S16" s="51"/>
       <c r="T16" s="51"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
@@ -15851,7 +15850,7 @@
       <c r="S17" s="51"/>
       <c r="T17" s="51"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I18" s="149"/>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
@@ -15863,7 +15862,7 @@
       <c r="S18" s="51"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I19" s="149"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
@@ -15875,7 +15874,7 @@
       <c r="S19" s="51"/>
       <c r="T19" s="51"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
@@ -15886,7 +15885,7 @@
       <c r="S20" s="51"/>
       <c r="T20" s="51"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
@@ -15897,7 +15896,7 @@
       <c r="S21" s="51"/>
       <c r="T21" s="51"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -15908,28 +15907,28 @@
       <c r="S22" s="51"/>
       <c r="T22" s="51"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="139"/>
       <c r="C23" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="174"/>
       <c r="C24" s="50" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K28" s="50"/>
     </row>
   </sheetData>
@@ -15940,40 +15939,40 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="58" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="7.1796875" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="79.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
+    <col min="17" max="17" width="79.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.26953125" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -15999,7 +15998,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B20</f>
         <v>TRA</v>
@@ -16040,7 +16039,7 @@
       <c r="U2" s="208"/>
       <c r="V2" s="208"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="N3" s="209" t="s">
         <v>7</v>
       </c>
@@ -16069,7 +16068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="9" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -16104,7 +16103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -16132,7 +16131,7 @@
       <c r="U5" s="212"/>
       <c r="V5" s="212"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N6" s="214" t="s">
         <v>143</v>
       </c>
@@ -16154,7 +16153,7 @@
       <c r="U6" s="214"/>
       <c r="V6" s="214"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -16177,7 +16176,7 @@
       <c r="U8" s="214"/>
       <c r="V8" s="214"/>
     </row>
-    <row r="9" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -16239,7 +16238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -16299,7 +16298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -16351,7 +16350,7 @@
       <c r="U11" s="213"/>
       <c r="V11" s="213"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>P11</f>
         <v>TOTEOIL</v>
@@ -16404,7 +16403,7 @@
       <c r="U12" s="214"/>
       <c r="V12" s="214"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>TRACO2</v>
@@ -16427,7 +16426,7 @@
       <c r="U13" s="16"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="str">
         <f>P12</f>
         <v>TOTNOIL</v>
@@ -16471,7 +16470,7 @@
       <c r="U14" s="16"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="D15" t="str">
         <f>$P$6</f>
@@ -16498,10 +16497,10 @@
       <c r="U15" s="16"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L17"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -16513,7 +16512,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L18"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -16525,7 +16524,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L19"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -16537,7 +16536,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L20"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -16549,7 +16548,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -16560,7 +16559,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
@@ -16568,7 +16567,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
@@ -16577,13 +16576,13 @@
       <c r="L24" s="15"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="K25" s="1"/>
       <c r="L25" s="15"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -16607,11 +16606,11 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -16622,40 +16621,40 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" customWidth="1"/>
+    <col min="13" max="13" width="2.7265625" customWidth="1"/>
+    <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1796875" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" customWidth="1"/>
+    <col min="19" max="19" width="11.7265625" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" customWidth="1"/>
+    <col min="21" max="21" width="13.81640625" customWidth="1"/>
+    <col min="22" max="22" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -16678,7 +16677,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B16</f>
         <v>RSD</v>
@@ -16717,7 +16716,7 @@
       <c r="U2" s="208"/>
       <c r="V2" s="208"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="N3" s="209" t="s">
         <v>7</v>
       </c>
@@ -16746,7 +16745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="9" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -16780,7 +16779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -16807,7 +16806,7 @@
       <c r="U5" s="212"/>
       <c r="V5" s="212"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N6" s="214" t="s">
         <v>143</v>
       </c>
@@ -16829,7 +16828,7 @@
       <c r="U6" s="214"/>
       <c r="V6" s="214"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -16851,7 +16850,7 @@
       <c r="U8" s="214"/>
       <c r="V8" s="214"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -16913,7 +16912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -16973,7 +16972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -17013,7 +17012,7 @@
       <c r="U11" s="211"/>
       <c r="V11" s="211"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>P12</f>
         <v>ROTEGAS</v>
@@ -17067,7 +17066,7 @@
       <c r="U12" s="213"/>
       <c r="V12" s="213"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>RSDCO2</v>
@@ -17102,7 +17101,7 @@
       <c r="U13" s="213"/>
       <c r="V13" s="213"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="str">
         <f>P13</f>
         <v>ROTNGAS</v>
@@ -17145,7 +17144,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="D15" t="str">
         <f>$P$6</f>
@@ -17172,7 +17171,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -17183,7 +17182,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -17194,7 +17193,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="I18" s="25"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -17206,7 +17205,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="I19" s="25"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -17218,7 +17217,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -17229,7 +17228,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -17240,7 +17239,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -17251,35 +17250,35 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -17291,30 +17290,30 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.26953125" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" customWidth="1"/>
+    <col min="15" max="15" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -17331,7 +17330,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
         <v>105</v>
       </c>
@@ -17346,7 +17345,7 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="13" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -17357,7 +17356,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
@@ -17395,7 +17394,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="20.5" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>103</v>
       </c>
@@ -17427,7 +17426,7 @@
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>114</v>
       </c>
@@ -17450,7 +17449,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="62" t="s">
         <v>35</v>
       </c>
@@ -17485,7 +17484,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
@@ -17520,7 +17519,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
@@ -17555,7 +17554,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
         <v>35</v>
       </c>
@@ -17606,22 +17605,22 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E14" s="14"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E16" s="14"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="85"/>
       <c r="C22" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="130"/>
       <c r="C23" s="1" t="s">
         <v>198</v>
@@ -17634,70 +17633,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="23" max="23" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" customWidth="1"/>
+    <col min="13" max="13" width="7.1796875" customWidth="1"/>
+    <col min="23" max="23" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.4">
       <c r="B2" s="145" t="s">
         <v>216</v>
       </c>
       <c r="M2" s="145"/>
     </row>
-    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.4">
       <c r="B4" s="145" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="M11" s="147"/>
       <c r="N11" s="147"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M12" s="9"/>
       <c r="N12" s="16"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M13" s="9"/>
       <c r="N13" s="16"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M14" s="9"/>
       <c r="N14" s="16"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M15" s="9"/>
       <c r="N15" s="16"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M16" s="9"/>
       <c r="N16" s="16"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" ht="18" x14ac:dyDescent="0.4">
       <c r="B17" s="145" t="s">
         <v>217</v>
       </c>
@@ -17705,7 +17704,7 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="D19" s="146" t="s">
         <v>200</v>
       </c>
@@ -17735,37 +17734,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -17783,7 +17782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!D2</f>
@@ -17813,7 +17812,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="K3" s="209" t="s">
         <v>7</v>
       </c>
@@ -17842,7 +17841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -17872,7 +17871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -17894,7 +17893,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K6" s="16"/>
       <c r="L6" s="9"/>
       <c r="M6" s="16"/>
@@ -17905,7 +17904,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -17922,7 +17921,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -17975,7 +17974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -18024,7 +18023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -18056,7 +18055,7 @@
       <c r="R10" s="215"/>
       <c r="S10" s="215"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINCOA1</v>
@@ -18101,7 +18100,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="str">
         <f>M12</f>
         <v>MINCOA2</v>
@@ -18142,7 +18141,7 @@
       <c r="R12" s="213"/>
       <c r="S12" s="213"/>
     </row>
-    <row r="13" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="str">
         <f>M13</f>
         <v>MINCOA3</v>
@@ -18180,7 +18179,7 @@
       <c r="R13" s="213"/>
       <c r="S13" s="213"/>
     </row>
-    <row r="14" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="str">
         <f>M14</f>
         <v>IMPCOA1</v>
@@ -18219,7 +18218,7 @@
       <c r="R14" s="213"/>
       <c r="S14" s="213"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="str">
         <f>M15</f>
         <v>EXPCOA1</v>
@@ -18265,7 +18264,7 @@
       <c r="S15" s="213"/>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="9"/>
@@ -18284,7 +18283,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -18303,7 +18302,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -18314,7 +18313,7 @@
       <c r="I18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -18324,7 +18323,7 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="133"/>
       <c r="C20" s="1" t="s">
         <v>197</v>
@@ -18336,7 +18335,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="130"/>
       <c r="C21" s="1" t="s">
         <v>198</v>
@@ -18348,17 +18347,17 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -18379,10 +18378,10 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T26" s="1"/>
     </row>
-    <row r="28" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -18403,7 +18402,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -18423,7 +18422,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -18443,7 +18442,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -18454,7 +18453,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -18465,7 +18464,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -18476,7 +18475,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -18496,7 +18495,7 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T35" s="9"/>
     </row>
   </sheetData>
@@ -18509,37 +18508,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.7265625" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -18557,7 +18556,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!E2</f>
@@ -18587,7 +18586,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="K3" s="209" t="s">
         <v>7</v>
       </c>
@@ -18616,7 +18615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -18646,7 +18645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -18668,7 +18667,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -18685,7 +18684,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -18738,7 +18737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" s="9" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" s="9" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -18787,7 +18786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" s="9" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -18819,7 +18818,7 @@
       <c r="R10" s="215"/>
       <c r="S10" s="215"/>
     </row>
-    <row r="11" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINGAS1</v>
@@ -18863,7 +18862,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="str">
         <f>M12</f>
         <v>MINGAS2</v>
@@ -18906,7 +18905,7 @@
       <c r="S12" s="213"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="str">
         <f>M13</f>
         <v>MINGAS3</v>
@@ -18925,7 +18924,7 @@
         <v>5.4</v>
       </c>
       <c r="I13" s="133">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -18946,7 +18945,7 @@
       <c r="R13" s="213"/>
       <c r="S13" s="213"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="str">
         <f>M14</f>
         <v>IMPGAS1</v>
@@ -18985,7 +18984,7 @@
       <c r="R14" s="213"/>
       <c r="S14" s="213"/>
     </row>
-    <row r="15" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="str">
         <f>M15</f>
         <v>EXPGAS1</v>
@@ -19033,7 +19032,7 @@
       <c r="S15" s="213"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="E16" s="16"/>
@@ -19041,11 +19040,11 @@
       <c r="G16" s="15"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -19054,7 +19053,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -19068,7 +19067,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -19080,14 +19079,14 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="133"/>
       <c r="C22" s="1" t="s">
         <v>197</v>
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="130"/>
       <c r="C23" s="1" t="s">
         <v>198</v>
@@ -19110,15 +19109,15 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I24" s="9"/>
       <c r="J24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -19138,7 +19137,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -19157,7 +19156,7 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -19176,7 +19175,7 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -19195,7 +19194,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -19214,7 +19213,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -19233,7 +19232,7 @@
       <c r="R31"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -19252,7 +19251,7 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -19271,7 +19270,7 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J34" s="9"/>
       <c r="T34" s="9"/>
     </row>
@@ -19285,37 +19284,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G46" sqref="G46:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -19333,7 +19332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!F2</f>
@@ -19363,7 +19362,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25" ht="13" x14ac:dyDescent="0.3">
       <c r="K3" s="209" t="s">
         <v>7</v>
       </c>
@@ -19392,7 +19391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -19424,7 +19423,7 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -19451,14 +19450,14 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="13" x14ac:dyDescent="0.3">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -19477,7 +19476,7 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -19530,7 +19529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -19580,7 +19579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:25" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" s="9" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -19615,7 +19614,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINOIL1</v>
@@ -19659,7 +19658,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="str">
         <f>M12</f>
         <v>MINOIL2</v>
@@ -19700,7 +19699,7 @@
       <c r="R12" s="213"/>
       <c r="S12" s="213"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="str">
         <f>M13</f>
         <v>MINOIL3</v>
@@ -19744,7 +19743,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="str">
         <f>M14</f>
         <v>IMPOIL1</v>
@@ -19788,7 +19787,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="str">
         <f>M15</f>
         <v>EXPOIL1</v>
@@ -19836,7 +19835,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F16" s="16"/>
       <c r="I16" s="23"/>
       <c r="T16"/>
@@ -19845,7 +19844,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F17" s="16"/>
       <c r="H17" s="206"/>
       <c r="U17"/>
@@ -19854,7 +19853,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -19866,7 +19865,7 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -19881,7 +19880,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -19896,7 +19895,7 @@
       <c r="X20"/>
       <c r="Y20"/>
     </row>
-    <row r="21" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -19912,7 +19911,7 @@
       <c r="X21"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="133"/>
       <c r="C22" s="1" t="s">
         <v>197</v>
@@ -19939,38 +19938,38 @@
       <c r="X22"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="130"/>
       <c r="C23" s="1" t="s">
         <v>198</v>
       </c>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="J24" s="1"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="9"/>
     </row>
   </sheetData>
@@ -19983,38 +19982,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="49" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.5703125" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="2.54296875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.54296875" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="49"/>
+    <col min="20" max="16384" width="8.81640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -20032,7 +20031,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!H2</f>
@@ -20062,7 +20061,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="H3" s="19"/>
       <c r="K3" s="209" t="s">
         <v>7</v>
@@ -20092,7 +20091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -20122,7 +20121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -20144,7 +20143,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -20162,7 +20161,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -20215,7 +20214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -20264,7 +20263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="51" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" s="51" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -20298,7 +20297,7 @@
       <c r="S10" s="215"/>
       <c r="T10" s="49"/>
     </row>
-    <row r="11" spans="2:20" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINRNW1</v>
@@ -20335,7 +20334,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -20354,7 +20353,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -20375,7 +20374,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -20394,7 +20393,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -20413,7 +20412,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="9"/>
@@ -20434,7 +20433,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="49"/>
     </row>
-    <row r="17" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -20452,7 +20451,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -20473,7 +20472,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -20491,7 +20490,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -20512,7 +20511,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="49"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -20533,7 +20532,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -20544,7 +20543,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
@@ -20567,7 +20566,7 @@
       <c r="S23"/>
       <c r="T23" s="49"/>
     </row>
-    <row r="24" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
@@ -20587,7 +20586,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -20605,44 +20604,44 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I26" s="51"/>
       <c r="J26" s="51"/>
       <c r="T26" s="51"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I36" s="52"/>
       <c r="J36" s="52"/>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
     </row>
@@ -20656,38 +20655,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
     <col min="10" max="10" width="2" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="49"/>
+    <col min="20" max="16384" width="8.81640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -20705,7 +20704,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!G2</f>
@@ -20735,7 +20734,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="H3" s="19"/>
       <c r="K3" s="209" t="s">
         <v>7</v>
@@ -20765,7 +20764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -20795,7 +20794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -20817,7 +20816,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -20834,7 +20833,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -20887,7 +20886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -20936,7 +20935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="51" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" s="51" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -20970,7 +20969,7 @@
       <c r="S10" s="215"/>
       <c r="T10" s="49"/>
     </row>
-    <row r="11" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINNUC1</v>
@@ -21007,7 +21006,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -21026,7 +21025,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -21047,7 +21046,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -21066,7 +21065,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -21085,7 +21084,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="9"/>
@@ -21106,7 +21105,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="49"/>
     </row>
-    <row r="17" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -21125,7 +21124,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -21146,7 +21145,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -21165,7 +21164,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -21186,7 +21185,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="49"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -21207,7 +21206,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -21218,7 +21217,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
@@ -21241,7 +21240,7 @@
       <c r="S23"/>
       <c r="T23" s="49"/>
     </row>
-    <row r="24" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
@@ -21262,7 +21261,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -21281,35 +21280,35 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J26" s="51"/>
       <c r="T26" s="51"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J30" s="52"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J31" s="52"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="52"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="52"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="52"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="52"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" s="52"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38" s="52"/>
     </row>
   </sheetData>
@@ -21322,35 +21321,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" customWidth="1"/>
+    <col min="8" max="8" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.453125" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -21370,7 +21369,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20" t="s">
@@ -21399,7 +21398,7 @@
       <c r="P2" s="208"/>
       <c r="Q2" s="208"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="13" x14ac:dyDescent="0.3">
       <c r="I3" s="209" t="s">
         <v>7</v>
       </c>
@@ -21428,7 +21427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" s="9" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -21462,7 +21461,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -21489,7 +21488,7 @@
       <c r="P5" s="213"/>
       <c r="Q5" s="213"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -21514,7 +21513,7 @@
       <c r="P6" s="213"/>
       <c r="Q6" s="213"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -21539,7 +21538,7 @@
       <c r="P7" s="213"/>
       <c r="Q7" s="213"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -21564,7 +21563,7 @@
       <c r="P8" s="213"/>
       <c r="Q8" s="213"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -21589,7 +21588,7 @@
       <c r="P9" s="213"/>
       <c r="Q9" s="213"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -21614,7 +21613,7 @@
       <c r="P10" s="213"/>
       <c r="Q10" s="213"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -21639,11 +21638,11 @@
       <c r="P11" s="213"/>
       <c r="Q11" s="213"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K12" s="52"/>
       <c r="L12" s="54"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="13" x14ac:dyDescent="0.3">
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
@@ -21661,7 +21660,7 @@
       <c r="P13" s="214"/>
       <c r="Q13" s="214"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
         <v>1</v>
       </c>
@@ -21708,7 +21707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
         <v>42</v>
       </c>
@@ -21755,7 +21754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
@@ -21781,7 +21780,7 @@
       <c r="P16" s="215"/>
       <c r="Q16" s="215"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f t="shared" ref="B17:B23" si="1">K17</f>
         <v>FTE-RSDGAS</v>
@@ -21825,7 +21824,7 @@
       <c r="P17" s="213"/>
       <c r="Q17" s="213"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAOIL</v>
@@ -21867,7 +21866,7 @@
       <c r="P18" s="213"/>
       <c r="Q18" s="213"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCCOA</v>
@@ -21909,7 +21908,7 @@
       <c r="P19" s="213"/>
       <c r="Q19" s="213"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCGAS</v>
@@ -21951,7 +21950,7 @@
       <c r="P20" s="213"/>
       <c r="Q20" s="213"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCOIL</v>
@@ -21993,7 +21992,7 @@
       <c r="P21" s="213"/>
       <c r="Q21" s="213"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCRNW</v>
@@ -22035,7 +22034,7 @@
       <c r="P22" s="213"/>
       <c r="Q22" s="213"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCNUC</v>
@@ -22077,7 +22076,7 @@
       <c r="P23" s="213"/>
       <c r="Q23" s="213"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
       <c r="I24" s="50"/>
       <c r="J24" s="49"/>
@@ -22085,14 +22084,14 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="85"/>
       <c r="C26" s="1" t="s">
         <v>197</v>
@@ -22103,7 +22102,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="130"/>
       <c r="C27" s="1" t="s">
         <v>198</v>
@@ -22114,7 +22113,7 @@
       <c r="P27" s="58"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -22134,47 +22133,47 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="49" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="49" customWidth="1"/>
     <col min="7" max="7" width="10" style="49" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="49" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" style="49" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" style="49" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="49" customWidth="1"/>
     <col min="13" max="13" width="7" style="49" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="49" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="49" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="49" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" style="52" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="52" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" style="49" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" style="49" customWidth="1"/>
+    <col min="16" max="16" width="11.7265625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="2.26953125" style="52" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" style="52" customWidth="1"/>
     <col min="19" max="19" width="2" style="52" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" customWidth="1"/>
     <col min="23" max="23" width="55" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.26953125" customWidth="1"/>
+    <col min="25" max="25" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="49"/>
+    <col min="28" max="28" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.81640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -22200,7 +22199,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="31" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B11</f>
         <v>ELC</v>
@@ -22241,7 +22240,7 @@
       <c r="AA2" s="208"/>
       <c r="AB2" s="208"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28" ht="13" x14ac:dyDescent="0.3">
       <c r="T3" s="209" t="s">
         <v>7</v>
       </c>
@@ -22270,7 +22269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:28" s="51" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28" s="51" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>167</v>
       </c>
@@ -22318,7 +22317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" s="51" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="59" t="s">
         <v>173</v>
       </c>
@@ -22363,7 +22362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="T6" s="214" t="s">
         <v>143</v>
       </c>
@@ -22385,11 +22384,11 @@
       <c r="AA6" s="214"/>
       <c r="AB6" s="214"/>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:28" ht="13" x14ac:dyDescent="0.3">
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28" ht="13" x14ac:dyDescent="0.3">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -22417,7 +22416,7 @@
       <c r="AA8" s="208"/>
       <c r="AB8" s="208"/>
     </row>
-    <row r="9" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -22496,7 +22495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -22573,7 +22572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -22631,7 +22630,7 @@
       <c r="AA11" s="211"/>
       <c r="AB11" s="211"/>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="str">
         <f>V12</f>
         <v>ELCTECOA00</v>
@@ -22703,7 +22702,7 @@
       <c r="AA12" s="213"/>
       <c r="AB12" s="213"/>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D13" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -22746,7 +22745,7 @@
       <c r="AA13" s="213"/>
       <c r="AB13" s="213"/>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="str">
         <f>V13</f>
         <v>ELCTEGAS00</v>
@@ -22815,7 +22814,7 @@
       <c r="AA14" s="213"/>
       <c r="AB14" s="213"/>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D15" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -22858,7 +22857,7 @@
       <c r="AA15" s="213"/>
       <c r="AB15" s="213"/>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="49" t="str">
         <f>V14</f>
         <v>ELCTEOIL00</v>
@@ -22930,7 +22929,7 @@
       <c r="AA16" s="213"/>
       <c r="AB16" s="213"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D17" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -22977,7 +22976,7 @@
       <c r="AA17" s="213"/>
       <c r="AB17" s="213"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="49" t="str">
         <f>V15</f>
         <v>ELCRERNW00</v>
@@ -23045,7 +23044,7 @@
       <c r="AA18" s="213"/>
       <c r="AB18" s="213"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="188" t="str">
         <f>V16</f>
         <v>ELCTENUC00</v>
@@ -23116,7 +23115,7 @@
       <c r="AA19" s="213"/>
       <c r="AB19" s="213"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="49" t="str">
         <f>V17</f>
         <v>ELCTNCOA00</v>
@@ -23172,7 +23171,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D21" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -23194,7 +23193,7 @@
       <c r="Q21" s="49"/>
       <c r="R21" s="49"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="49" t="str">
         <f>V18</f>
         <v>ELCTNGAS00</v>
@@ -23238,7 +23237,7 @@
       <c r="Q22" s="49"/>
       <c r="R22" s="49"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D23" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -23258,7 +23257,7 @@
       <c r="Q23" s="49"/>
       <c r="R23" s="49"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="49" t="str">
         <f>V19</f>
         <v>ELCTNOIL00</v>
@@ -23302,7 +23301,7 @@
       <c r="Q24" s="49"/>
       <c r="R24" s="49"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D25" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -23321,16 +23320,16 @@
       <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="R27" s="186"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="R28" s="204"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="R29" s="186"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="R30" s="205"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
@@ -23340,7 +23339,7 @@
       <c r="Y30" s="9"/>
       <c r="Z30" s="16"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="85"/>
       <c r="C31" s="1" t="s">
         <v>197</v>
@@ -23353,7 +23352,7 @@
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="130"/>
       <c r="C32" s="1" t="s">
         <v>198</v>
@@ -23367,7 +23366,7 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
     </row>
-    <row r="33" spans="20:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -23376,7 +23375,7 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
     </row>
-    <row r="34" spans="20:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -23386,7 +23385,7 @@
       <c r="Z34" s="16"/>
       <c r="AA34" s="212"/>
     </row>
-    <row r="35" spans="20:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -23395,7 +23394,7 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="16"/>
     </row>
-    <row r="36" spans="20:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
@@ -23404,7 +23403,7 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
     </row>
-    <row r="37" spans="20:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>

--- a/VT_REG_PRI_V04.xlsx
+++ b/VT_REG_PRI_V04.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u446122\Documents\OFFLINE\Repos\demos004_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA_2\Veda_models\demos004_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8718F207-D7B3-4B0D-9CCA-DA65B35142A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -33,28 +34,17 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,14 +62,14 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -219,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -471,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -496,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -559,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -807,14 +797,14 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -928,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -954,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1027,7 +1017,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1113,7 +1103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1206,7 +1196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0">
+    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1231,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0">
+    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1294,7 +1284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0">
+    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1542,14 +1532,14 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1663,7 +1653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1689,7 +1679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1762,7 +1752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1815,7 +1805,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1838,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1941,7 +1931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0">
+    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1966,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0">
+    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2029,7 +2019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0">
+    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2277,14 +2267,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2398,7 +2388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2424,7 +2414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2497,7 +2487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2550,7 +2540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2583,7 +2573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0">
+    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2630,7 +2620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2723,7 +2713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0">
+    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2748,7 +2738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0">
+    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2811,7 +2801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0">
+    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3059,14 +3049,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3180,7 +3170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3206,7 +3196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3279,7 +3269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -3332,7 +3322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -3365,7 +3355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0">
+    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -3412,7 +3402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -3505,7 +3495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0">
+    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3530,7 +3520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0">
+    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3593,7 +3583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0">
+    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3841,14 +3831,14 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3962,7 +3952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3988,7 +3978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4061,7 +4051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -4114,7 +4104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -4147,7 +4137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0">
+    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4194,7 +4184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -4287,7 +4277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0">
+    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -4312,7 +4302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0">
+    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -4375,7 +4365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0">
+    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -4623,14 +4613,14 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4744,7 +4734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4770,7 +4760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4843,7 +4833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -4896,7 +4886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -4929,7 +4919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0">
+    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4976,7 +4966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5069,7 +5059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0">
+    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -5094,7 +5084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0">
+    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -5157,7 +5147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0">
+    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -5405,14 +5395,14 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -5526,7 +5516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -5552,7 +5542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -5625,7 +5615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -5678,7 +5668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -5711,7 +5701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0">
+    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -5758,7 +5748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5851,7 +5841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0">
+    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -5876,7 +5866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0">
+    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -5939,7 +5929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0">
+    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -6187,14 +6177,14 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -6308,7 +6298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -6334,7 +6324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -6407,7 +6397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -6460,7 +6450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -6493,7 +6483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="2" shapeId="0">
+    <comment ref="O14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -6586,7 +6576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="1" shapeId="0">
+    <comment ref="P14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -6611,7 +6601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q14" authorId="2" shapeId="0">
+    <comment ref="Q14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -6674,7 +6664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="2" shapeId="0">
+    <comment ref="I15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -6922,14 +6912,14 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -7043,7 +7033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="1" shapeId="0">
+    <comment ref="Y3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -7069,7 +7059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="2" shapeId="0">
+    <comment ref="Z3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -7142,7 +7132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="2" shapeId="0">
+    <comment ref="AA3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -7195,7 +7185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="2" shapeId="0">
+    <comment ref="AB3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -7228,7 +7218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z9" authorId="2" shapeId="0">
+    <comment ref="Z9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -7321,7 +7311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA9" authorId="1" shapeId="0">
+    <comment ref="AA9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -7346,7 +7336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB9" authorId="2" shapeId="0">
+    <comment ref="AB9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -7409,7 +7399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="2" shapeId="0">
+    <comment ref="T10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
       <text>
         <r>
           <rPr>
@@ -7657,14 +7647,14 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -7778,7 +7768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -7804,7 +7794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -7877,7 +7867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
@@ -7930,7 +7920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
       <text>
         <r>
           <rPr>
@@ -7963,7 +7953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
       <text>
         <r>
           <rPr>
@@ -8056,7 +8046,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
       <text>
         <r>
           <rPr>
@@ -8081,7 +8071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
       <text>
         <r>
           <rPr>
@@ -8144,7 +8134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000009000000}">
       <text>
         <r>
           <rPr>
@@ -9051,15 +9041,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="General_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -9638,7 +9628,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9685,7 +9675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -9788,7 +9778,7 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
@@ -9801,7 +9791,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -9810,7 +9800,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
@@ -9830,7 +9820,7 @@
     <xf numFmtId="1" fontId="15" fillId="7" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -9846,40 +9836,40 @@
     <xf numFmtId="1" fontId="15" fillId="7" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9888,13 +9878,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10010,54 +10000,54 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="10" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -10068,29 +10058,29 @@
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="6"/>
+    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Input" xfId="8" builtinId="20"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="11"/>
-    <cellStyle name="Normal 4" xfId="12"/>
-    <cellStyle name="Normal 4 2" xfId="13"/>
-    <cellStyle name="Normal 8" xfId="14"/>
-    <cellStyle name="Normal 9 2" xfId="15"/>
-    <cellStyle name="Normale_B2020" xfId="16"/>
+    <cellStyle name="Normal 10" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 9 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normale_B2020" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Percent" xfId="17" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="18"/>
-    <cellStyle name="Percent 3" xfId="19"/>
-    <cellStyle name="Percent 3 2" xfId="20"/>
-    <cellStyle name="Percent 3 3" xfId="21"/>
-    <cellStyle name="Percent 4" xfId="22"/>
-    <cellStyle name="Percent 4 2" xfId="23"/>
-    <cellStyle name="Percent 4 3" xfId="24"/>
-    <cellStyle name="Percent 5" xfId="25"/>
-    <cellStyle name="Percent 6" xfId="26"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="27"/>
+    <cellStyle name="Percent 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 3 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 4 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 6" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -13453,31 +13443,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="10.81640625" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="P1" s="36" t="s">
         <v>118</v>
       </c>
@@ -13491,7 +13481,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="10"/>
       <c r="D2" s="78" t="s">
         <v>47</v>
@@ -13530,7 +13520,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C3" s="12"/>
       <c r="D3" s="79" t="s">
         <v>55</v>
@@ -13561,7 +13551,7 @@
       </c>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C4" s="13" t="s">
         <v>62</v>
       </c>
@@ -13576,7 +13566,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="80" t="s">
         <v>63</v>
       </c>
@@ -13614,7 +13604,7 @@
       <c r="M5" s="9"/>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="80" t="s">
         <v>65</v>
       </c>
@@ -13651,7 +13641,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="80" t="s">
         <v>67</v>
       </c>
@@ -13689,7 +13679,7 @@
       <c r="M7" s="9"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="175" t="s">
         <v>208</v>
       </c>
@@ -13734,7 +13724,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="72"/>
       <c r="C9" s="13" t="s">
         <v>69</v>
@@ -13750,7 +13740,7 @@
       <c r="L9" s="103"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="80" t="s">
         <v>70</v>
       </c>
@@ -13787,7 +13777,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="80" t="s">
         <v>54</v>
       </c>
@@ -13824,7 +13814,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="80" t="s">
         <v>73</v>
       </c>
@@ -13861,7 +13851,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="80" t="s">
         <v>75</v>
       </c>
@@ -13884,7 +13874,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="72"/>
       <c r="C14" s="102" t="s">
         <v>77</v>
@@ -13927,7 +13917,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="72"/>
       <c r="C15" s="13" t="s">
         <v>78</v>
@@ -13943,7 +13933,7 @@
       <c r="L15" s="103"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="80" t="s">
         <v>79</v>
@@ -13981,7 +13971,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="80" t="s">
         <v>81</v>
@@ -14019,7 +14009,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="80" t="s">
         <v>83</v>
@@ -14057,7 +14047,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="80" t="s">
         <v>85</v>
@@ -14095,7 +14085,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="80" t="s">
         <v>87</v>
@@ -14133,7 +14123,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="80" t="s">
         <v>89</v>
@@ -14177,7 +14167,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="80" t="s">
         <v>109</v>
@@ -14213,7 +14203,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="80" t="s">
         <v>110</v>
@@ -14249,7 +14239,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="175" t="s">
         <v>112</v>
@@ -14296,7 +14286,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="203"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="D25" s="14"/>
       <c r="F25" s="14"/>
@@ -14308,7 +14298,7 @@
       <c r="L25" s="14"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="D26" s="14"/>
       <c r="F26" s="14"/>
@@ -14320,7 +14310,7 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="C27" s="94" t="s">
         <v>196</v>
@@ -14336,7 +14326,7 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="D28" s="14"/>
       <c r="F28" s="14"/>
@@ -14348,7 +14338,7 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="D29" s="14"/>
       <c r="F29" s="14"/>
@@ -14360,7 +14350,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="D30" s="14"/>
       <c r="F30" s="14"/>
@@ -14372,7 +14362,7 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="D31" s="14"/>
       <c r="F31" s="14"/>
@@ -14384,7 +14374,7 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="D32" s="14"/>
       <c r="F32" s="14"/>
@@ -14396,7 +14386,7 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="D33" s="14"/>
       <c r="F33" s="14"/>
@@ -14408,7 +14398,7 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="D34" s="14"/>
       <c r="F34" s="14"/>
@@ -14420,7 +14410,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="D35" s="14"/>
       <c r="F35" s="14"/>
@@ -14432,7 +14422,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="D36" s="37" t="s">
         <v>47</v>
@@ -14451,7 +14441,7 @@
       <c r="L36" s="42"/>
       <c r="M36" s="42"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="C37" s="38" t="s">
         <v>154</v>
@@ -14473,7 +14463,7 @@
       <c r="L37" s="43"/>
       <c r="M37" s="43"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="C38" s="40" t="s">
         <v>155</v>
@@ -14495,17 +14485,17 @@
       <c r="L38" s="43"/>
       <c r="M38" s="43"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="C39" s="42"/>
       <c r="D39" s="43"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
     </row>
-    <row r="41" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="47" t="s">
         <v>130</v>
@@ -14539,7 +14529,7 @@
       </c>
       <c r="L41" s="48"/>
     </row>
-    <row r="42" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="80" t="s">
         <v>79</v>
@@ -14560,7 +14550,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="80" t="s">
         <v>79</v>
@@ -14581,7 +14571,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="80" t="s">
         <v>79</v>
@@ -14604,7 +14594,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="80"/>
       <c r="C45" s="111"/>
@@ -14619,7 +14609,7 @@
       <c r="L45" s="11"/>
       <c r="N45" s="111"/>
     </row>
-    <row r="46" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="80" t="s">
         <v>81</v>
@@ -14640,7 +14630,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="80" t="s">
         <v>81</v>
@@ -14661,7 +14651,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="80"/>
       <c r="C48" s="111"/>
@@ -14676,7 +14666,7 @@
       <c r="L48" s="11"/>
       <c r="N48" s="111"/>
     </row>
-    <row r="49" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="80" t="s">
         <v>87</v>
@@ -14699,13 +14689,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
     </row>
-    <row r="52" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="C52" s="125" t="s">
         <v>144</v>
@@ -14717,7 +14707,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="36" t="s">
         <v>158</v>
@@ -14732,7 +14722,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="80" t="s">
         <v>79</v>
@@ -14743,7 +14733,7 @@
       <c r="D54" s="122"/>
       <c r="E54" s="122"/>
     </row>
-    <row r="55" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="80" t="s">
         <v>87</v>
@@ -14754,7 +14744,7 @@
       <c r="D55" s="122"/>
       <c r="E55" s="122"/>
     </row>
-    <row r="56" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="80" t="s">
         <v>89</v>
@@ -14765,7 +14755,7 @@
       <c r="D56" s="122"/>
       <c r="E56" s="122"/>
     </row>
-    <row r="57" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="80" t="s">
         <v>54</v>
@@ -14784,39 +14774,39 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" style="49" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="49" customWidth="1"/>
-    <col min="11" max="11" width="2.7265625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.54296875" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.26953125" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" style="49" customWidth="1"/>
-    <col min="18" max="18" width="14.26953125" style="49" customWidth="1"/>
-    <col min="19" max="19" width="13.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.453125" style="49" customWidth="1"/>
-    <col min="21" max="16384" width="8.81640625" style="49"/>
+    <col min="4" max="4" width="13.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="49" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="49" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="49" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="49" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -14837,7 +14827,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -14874,7 +14864,7 @@
       <c r="S2" s="218"/>
       <c r="T2" s="218"/>
     </row>
-    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="G3" s="51"/>
       <c r="L3" s="221" t="s">
         <v>7</v>
@@ -14904,7 +14894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="51" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" s="51" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -14938,7 +14928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -14965,7 +14955,7 @@
       <c r="S5" s="223"/>
       <c r="T5" s="223"/>
     </row>
-    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -14986,7 +14976,7 @@
       <c r="S8" s="219"/>
       <c r="T8" s="219"/>
     </row>
-    <row r="9" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -15042,7 +15032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -15098,7 +15088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -15133,7 +15123,7 @@
       <c r="S11" s="211"/>
       <c r="T11" s="211"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="49" t="str">
         <f>N12</f>
         <v>DTPSCOA</v>
@@ -15187,7 +15177,7 @@
       <c r="S12" s="224"/>
       <c r="T12" s="224"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D13" s="51"/>
       <c r="E13" s="156"/>
       <c r="F13" s="171"/>
@@ -15205,7 +15195,7 @@
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="53"/>
       <c r="D14" s="53"/>
       <c r="E14" s="151"/>
@@ -15224,7 +15214,7 @@
       <c r="S14" s="51"/>
       <c r="T14" s="51"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="53"/>
       <c r="E15" s="151"/>
       <c r="F15" s="172"/>
@@ -15242,7 +15232,7 @@
       <c r="S15" s="51"/>
       <c r="T15" s="51"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
@@ -15258,7 +15248,7 @@
       <c r="S16" s="51"/>
       <c r="T16" s="51"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
@@ -15274,7 +15264,7 @@
       <c r="S17" s="51"/>
       <c r="T17" s="51"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I18" s="149"/>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
@@ -15286,7 +15276,7 @@
       <c r="S18" s="51"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I19" s="149"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
@@ -15298,7 +15288,7 @@
       <c r="S19" s="51"/>
       <c r="T19" s="51"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
@@ -15309,7 +15299,7 @@
       <c r="S20" s="51"/>
       <c r="T20" s="51"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
@@ -15320,7 +15310,7 @@
       <c r="S21" s="51"/>
       <c r="T21" s="51"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -15331,28 +15321,28 @@
       <c r="S22" s="51"/>
       <c r="T22" s="51"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="139"/>
       <c r="C23" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="174"/>
       <c r="C24" s="50" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K28" s="50"/>
     </row>
   </sheetData>
@@ -15363,39 +15353,39 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" style="49" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="49" customWidth="1"/>
-    <col min="11" max="11" width="2.7265625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.54296875" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.453125" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" style="49" customWidth="1"/>
-    <col min="18" max="18" width="14.26953125" style="49" customWidth="1"/>
-    <col min="19" max="19" width="13.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.453125" style="49" customWidth="1"/>
-    <col min="21" max="16384" width="8.81640625" style="49"/>
+    <col min="4" max="4" width="13.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="49" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="49" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="49" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="49" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -15415,7 +15405,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -15451,7 +15441,7 @@
       <c r="S2" s="218"/>
       <c r="T2" s="218"/>
     </row>
-    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L3" s="221" t="s">
         <v>7</v>
       </c>
@@ -15480,7 +15470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="51" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" s="51" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -15514,7 +15504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -15541,7 +15531,7 @@
       <c r="S5" s="223"/>
       <c r="T5" s="223"/>
     </row>
-    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -15562,7 +15552,7 @@
       <c r="S8" s="219"/>
       <c r="T8" s="219"/>
     </row>
-    <row r="9" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -15618,7 +15608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -15674,7 +15664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -15709,7 +15699,7 @@
       <c r="S11" s="211"/>
       <c r="T11" s="211"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="49" t="str">
         <f>N12</f>
         <v>DTPSELC</v>
@@ -15763,7 +15753,7 @@
       <c r="S12" s="224"/>
       <c r="T12" s="224"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D13" s="51"/>
       <c r="E13" s="156"/>
       <c r="F13" s="171"/>
@@ -15781,7 +15771,7 @@
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="53"/>
       <c r="D14" s="53"/>
       <c r="E14" s="151"/>
@@ -15800,7 +15790,7 @@
       <c r="S14" s="51"/>
       <c r="T14" s="51"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="53"/>
       <c r="E15" s="151"/>
       <c r="F15" s="172"/>
@@ -15818,7 +15808,7 @@
       <c r="S15" s="51"/>
       <c r="T15" s="51"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
@@ -15834,7 +15824,7 @@
       <c r="S16" s="51"/>
       <c r="T16" s="51"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
@@ -15850,7 +15840,7 @@
       <c r="S17" s="51"/>
       <c r="T17" s="51"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I18" s="149"/>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
@@ -15862,7 +15852,7 @@
       <c r="S18" s="51"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I19" s="149"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
@@ -15874,7 +15864,7 @@
       <c r="S19" s="51"/>
       <c r="T19" s="51"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
@@ -15885,7 +15875,7 @@
       <c r="S20" s="51"/>
       <c r="T20" s="51"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
@@ -15896,7 +15886,7 @@
       <c r="S21" s="51"/>
       <c r="T21" s="51"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -15907,28 +15897,28 @@
       <c r="S22" s="51"/>
       <c r="T22" s="51"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="139"/>
       <c r="C23" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="174"/>
       <c r="C24" s="50" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K28" s="50"/>
     </row>
   </sheetData>
@@ -15939,40 +15929,40 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="58" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" customWidth="1"/>
-    <col min="15" max="15" width="7.1796875" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="79.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" customWidth="1"/>
+    <col min="17" max="17" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.26953125" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -15998,7 +15988,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B20</f>
         <v>TRA</v>
@@ -16039,7 +16029,7 @@
       <c r="U2" s="208"/>
       <c r="V2" s="208"/>
     </row>
-    <row r="3" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N3" s="209" t="s">
         <v>7</v>
       </c>
@@ -16068,7 +16058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="9" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:22" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -16103,7 +16093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -16131,7 +16121,7 @@
       <c r="U5" s="212"/>
       <c r="V5" s="212"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N6" s="214" t="s">
         <v>143</v>
       </c>
@@ -16153,7 +16143,7 @@
       <c r="U6" s="214"/>
       <c r="V6" s="214"/>
     </row>
-    <row r="8" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -16176,7 +16166,7 @@
       <c r="U8" s="214"/>
       <c r="V8" s="214"/>
     </row>
-    <row r="9" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -16238,7 +16228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -16298,7 +16288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -16350,7 +16340,7 @@
       <c r="U11" s="213"/>
       <c r="V11" s="213"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
         <f>P11</f>
         <v>TOTEOIL</v>
@@ -16403,7 +16393,7 @@
       <c r="U12" s="214"/>
       <c r="V12" s="214"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>TRACO2</v>
@@ -16426,7 +16416,7 @@
       <c r="U13" s="16"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="str">
         <f>P12</f>
         <v>TOTNOIL</v>
@@ -16470,7 +16460,7 @@
       <c r="U14" s="16"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="D15" t="str">
         <f>$P$6</f>
@@ -16497,10 +16487,10 @@
       <c r="U15" s="16"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="L17"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -16512,7 +16502,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="L18"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -16524,7 +16514,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="L19"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -16536,7 +16526,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="L20"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -16548,7 +16538,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -16559,7 +16549,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
@@ -16567,7 +16557,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
@@ -16576,13 +16566,13 @@
       <c r="L24" s="15"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="K25" s="1"/>
       <c r="L25" s="15"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -16606,11 +16596,11 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -16621,40 +16611,40 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:V28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.26953125" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" customWidth="1"/>
-    <col min="13" max="13" width="2.7265625" customWidth="1"/>
-    <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1796875" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" customWidth="1"/>
-    <col min="21" max="21" width="13.81640625" customWidth="1"/>
-    <col min="22" max="22" width="8.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -16677,7 +16667,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B16</f>
         <v>RSD</v>
@@ -16716,7 +16706,7 @@
       <c r="U2" s="208"/>
       <c r="V2" s="208"/>
     </row>
-    <row r="3" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N3" s="209" t="s">
         <v>7</v>
       </c>
@@ -16745,7 +16735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="9" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:22" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -16779,7 +16769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -16806,7 +16796,7 @@
       <c r="U5" s="212"/>
       <c r="V5" s="212"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N6" s="214" t="s">
         <v>143</v>
       </c>
@@ -16828,7 +16818,7 @@
       <c r="U6" s="214"/>
       <c r="V6" s="214"/>
     </row>
-    <row r="8" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -16850,7 +16840,7 @@
       <c r="U8" s="214"/>
       <c r="V8" s="214"/>
     </row>
-    <row r="9" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -16912,7 +16902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -16972,7 +16962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -17012,7 +17002,7 @@
       <c r="U11" s="211"/>
       <c r="V11" s="211"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
         <f>P12</f>
         <v>ROTEGAS</v>
@@ -17066,7 +17056,7 @@
       <c r="U12" s="213"/>
       <c r="V12" s="213"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>RSDCO2</v>
@@ -17101,7 +17091,7 @@
       <c r="U13" s="213"/>
       <c r="V13" s="213"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="str">
         <f>P13</f>
         <v>ROTNGAS</v>
@@ -17144,7 +17134,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="D15" t="str">
         <f>$P$6</f>
@@ -17171,7 +17161,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -17182,7 +17172,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -17193,7 +17183,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="I18" s="25"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -17205,7 +17195,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="I19" s="25"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -17217,7 +17207,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -17228,7 +17218,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -17239,7 +17229,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -17250,35 +17240,35 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -17290,30 +17280,30 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -17330,7 +17320,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>105</v>
       </c>
@@ -17345,7 +17335,7 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -17356,7 +17346,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:17" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
@@ -17394,7 +17384,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="20.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>103</v>
       </c>
@@ -17426,7 +17416,7 @@
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="2:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>114</v>
       </c>
@@ -17449,7 +17439,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="62" t="s">
         <v>35</v>
       </c>
@@ -17484,7 +17474,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
@@ -17519,7 +17509,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
@@ -17554,7 +17544,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="46" t="s">
         <v>35</v>
       </c>
@@ -17605,22 +17595,22 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E14" s="14"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E16" s="14"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="85"/>
       <c r="C22" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="130"/>
       <c r="C23" s="1" t="s">
         <v>198</v>
@@ -17633,70 +17623,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA19"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.81640625" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" customWidth="1"/>
-    <col min="23" max="23" width="5.453125" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="23" max="23" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="145" t="s">
         <v>216</v>
       </c>
       <c r="M2" s="145"/>
     </row>
-    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="145" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M11" s="147"/>
       <c r="N11" s="147"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M12" s="9"/>
       <c r="N12" s="16"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M13" s="9"/>
       <c r="N13" s="16"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M14" s="9"/>
       <c r="N14" s="16"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M15" s="9"/>
       <c r="N15" s="16"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M16" s="9"/>
       <c r="N16" s="16"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="2:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:27" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="145" t="s">
         <v>217</v>
       </c>
@@ -17704,7 +17694,7 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="19" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D19" s="146" t="s">
         <v>200</v>
       </c>
@@ -17734,37 +17724,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:T35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.1796875" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -17782,7 +17772,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!D2</f>
@@ -17812,7 +17802,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K3" s="209" t="s">
         <v>7</v>
       </c>
@@ -17841,7 +17831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -17871,7 +17861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -17893,7 +17883,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K6" s="16"/>
       <c r="L6" s="9"/>
       <c r="M6" s="16"/>
@@ -17904,7 +17894,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -17921,7 +17911,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -17974,7 +17964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -18023,7 +18013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -18055,7 +18045,7 @@
       <c r="R10" s="215"/>
       <c r="S10" s="215"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINCOA1</v>
@@ -18100,7 +18090,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="str">
         <f>M12</f>
         <v>MINCOA2</v>
@@ -18141,7 +18131,7 @@
       <c r="R12" s="213"/>
       <c r="S12" s="213"/>
     </row>
-    <row r="13" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="str">
         <f>M13</f>
         <v>MINCOA3</v>
@@ -18179,7 +18169,7 @@
       <c r="R13" s="213"/>
       <c r="S13" s="213"/>
     </row>
-    <row r="14" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="str">
         <f>M14</f>
         <v>IMPCOA1</v>
@@ -18218,7 +18208,7 @@
       <c r="R14" s="213"/>
       <c r="S14" s="213"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="str">
         <f>M15</f>
         <v>EXPCOA1</v>
@@ -18264,7 +18254,7 @@
       <c r="S15" s="213"/>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="9"/>
@@ -18283,7 +18273,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -18302,7 +18292,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -18313,7 +18303,7 @@
       <c r="I18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -18323,7 +18313,7 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="133"/>
       <c r="C20" s="1" t="s">
         <v>197</v>
@@ -18335,7 +18325,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="130"/>
       <c r="C21" s="1" t="s">
         <v>198</v>
@@ -18347,17 +18337,17 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="J22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -18378,10 +18368,10 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="T26" s="1"/>
     </row>
-    <row r="28" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -18402,7 +18392,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -18422,7 +18412,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -18442,7 +18432,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -18453,7 +18443,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -18464,7 +18454,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -18475,7 +18465,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -18495,7 +18485,7 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="T35" s="9"/>
     </row>
   </sheetData>
@@ -18508,37 +18498,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7265625" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.1796875" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -18556,7 +18546,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!E2</f>
@@ -18586,7 +18576,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K3" s="209" t="s">
         <v>7</v>
       </c>
@@ -18615,7 +18605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -18645,7 +18635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -18667,7 +18657,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="7" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -18684,7 +18674,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -18737,7 +18727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" s="9" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" s="9" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -18786,7 +18776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="9" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -18818,7 +18808,7 @@
       <c r="R10" s="215"/>
       <c r="S10" s="215"/>
     </row>
-    <row r="11" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINGAS1</v>
@@ -18862,7 +18852,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="str">
         <f>M12</f>
         <v>MINGAS2</v>
@@ -18905,7 +18895,7 @@
       <c r="S12" s="213"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="str">
         <f>M13</f>
         <v>MINGAS3</v>
@@ -18924,7 +18914,7 @@
         <v>5.4</v>
       </c>
       <c r="I13" s="133">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -18945,7 +18935,7 @@
       <c r="R13" s="213"/>
       <c r="S13" s="213"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="str">
         <f>M14</f>
         <v>IMPGAS1</v>
@@ -18984,7 +18974,7 @@
       <c r="R14" s="213"/>
       <c r="S14" s="213"/>
     </row>
-    <row r="15" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="str">
         <f>M15</f>
         <v>EXPGAS1</v>
@@ -19032,7 +19022,7 @@
       <c r="S15" s="213"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="E16" s="16"/>
@@ -19040,11 +19030,11 @@
       <c r="G16" s="15"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -19053,7 +19043,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -19067,7 +19057,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -19079,14 +19069,14 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="133"/>
       <c r="C22" s="1" t="s">
         <v>197</v>
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="130"/>
       <c r="C23" s="1" t="s">
         <v>198</v>
@@ -19109,15 +19099,15 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I24" s="9"/>
       <c r="J24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -19137,7 +19127,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -19156,7 +19146,7 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -19175,7 +19165,7 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -19194,7 +19184,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -19213,7 +19203,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -19232,7 +19222,7 @@
       <c r="R31"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -19251,7 +19241,7 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -19270,7 +19260,7 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="J34" s="9"/>
       <c r="T34" s="9"/>
     </row>
@@ -19284,37 +19274,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Y34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G46" sqref="G46:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.1796875" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -19332,7 +19322,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!F2</f>
@@ -19362,7 +19352,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:25" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="K3" s="209" t="s">
         <v>7</v>
       </c>
@@ -19391,7 +19381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -19423,7 +19413,7 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -19450,14 +19440,14 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="2:25" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -19476,7 +19466,7 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="2:25" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -19529,7 +19519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -19579,7 +19569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:25" s="9" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -19614,7 +19604,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINOIL1</v>
@@ -19658,7 +19648,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="str">
         <f>M12</f>
         <v>MINOIL2</v>
@@ -19699,7 +19689,7 @@
       <c r="R12" s="213"/>
       <c r="S12" s="213"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="str">
         <f>M13</f>
         <v>MINOIL3</v>
@@ -19743,7 +19733,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="str">
         <f>M14</f>
         <v>IMPOIL1</v>
@@ -19787,7 +19777,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="str">
         <f>M15</f>
         <v>EXPOIL1</v>
@@ -19835,7 +19825,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F16" s="16"/>
       <c r="I16" s="23"/>
       <c r="T16"/>
@@ -19844,7 +19834,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F17" s="16"/>
       <c r="H17" s="206"/>
       <c r="U17"/>
@@ -19853,7 +19843,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -19865,7 +19855,7 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -19880,7 +19870,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -19895,7 +19885,7 @@
       <c r="X20"/>
       <c r="Y20"/>
     </row>
-    <row r="21" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -19911,7 +19901,7 @@
       <c r="X21"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="133"/>
       <c r="C22" s="1" t="s">
         <v>197</v>
@@ -19938,38 +19928,38 @@
       <c r="X22"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="130"/>
       <c r="C23" s="1" t="s">
         <v>198</v>
       </c>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J24" s="1"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J34" s="9"/>
     </row>
   </sheetData>
@@ -19982,38 +19972,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:T38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="2.54296875" style="49" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.54296875" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="49" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.81640625" style="49"/>
+    <col min="20" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -20031,7 +20021,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!H2</f>
@@ -20061,7 +20051,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="H3" s="19"/>
       <c r="K3" s="209" t="s">
         <v>7</v>
@@ -20091,7 +20081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -20121,7 +20111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -20143,7 +20133,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="7" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -20161,7 +20151,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -20214,7 +20204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -20263,7 +20253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="51" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" s="51" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -20297,7 +20287,7 @@
       <c r="S10" s="215"/>
       <c r="T10" s="49"/>
     </row>
-    <row r="11" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINRNW1</v>
@@ -20334,7 +20324,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -20353,7 +20343,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -20374,7 +20364,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -20393,7 +20383,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -20412,7 +20402,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="9"/>
@@ -20433,7 +20423,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="49"/>
     </row>
-    <row r="17" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -20451,7 +20441,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -20472,7 +20462,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -20490,7 +20480,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -20511,7 +20501,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="49"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -20532,7 +20522,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -20543,7 +20533,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
@@ -20566,7 +20556,7 @@
       <c r="S23"/>
       <c r="T23" s="49"/>
     </row>
-    <row r="24" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
@@ -20586,7 +20576,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -20604,44 +20594,44 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I26" s="51"/>
       <c r="J26" s="51"/>
       <c r="T26" s="51"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I36" s="52"/>
       <c r="J36" s="52"/>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
     </row>
@@ -20655,38 +20645,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:T38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="2" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.81640625" style="49"/>
+    <col min="20" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -20704,7 +20694,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!G2</f>
@@ -20734,7 +20724,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="H3" s="19"/>
       <c r="K3" s="209" t="s">
         <v>7</v>
@@ -20764,7 +20754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -20794,7 +20784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -20816,7 +20806,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="7" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -20833,7 +20823,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -20886,7 +20876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -20935,7 +20925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="51" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" s="51" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -20969,7 +20959,7 @@
       <c r="S10" s="215"/>
       <c r="T10" s="49"/>
     </row>
-    <row r="11" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINNUC1</v>
@@ -21006,7 +20996,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -21025,7 +21015,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -21046,7 +21036,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -21065,7 +21055,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -21084,7 +21074,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="9"/>
@@ -21105,7 +21095,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="49"/>
     </row>
-    <row r="17" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -21124,7 +21114,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -21145,7 +21135,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -21164,7 +21154,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -21185,7 +21175,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="49"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -21206,7 +21196,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -21217,7 +21207,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
@@ -21240,7 +21230,7 @@
       <c r="S23"/>
       <c r="T23" s="49"/>
     </row>
-    <row r="24" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
@@ -21261,7 +21251,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -21280,35 +21270,35 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="J26" s="51"/>
       <c r="T26" s="51"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="J30" s="52"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="J31" s="52"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J33" s="52"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J34" s="52"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J35" s="52"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J36" s="52"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J37" s="52"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" s="52"/>
     </row>
   </sheetData>
@@ -21321,35 +21311,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:Q28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" customWidth="1"/>
-    <col min="8" max="8" width="2.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.453125" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -21369,7 +21359,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20" t="s">
@@ -21398,7 +21388,7 @@
       <c r="P2" s="208"/>
       <c r="Q2" s="208"/>
     </row>
-    <row r="3" spans="2:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I3" s="209" t="s">
         <v>7</v>
       </c>
@@ -21427,7 +21417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="9" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -21461,7 +21451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -21488,7 +21478,7 @@
       <c r="P5" s="213"/>
       <c r="Q5" s="213"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -21513,7 +21503,7 @@
       <c r="P6" s="213"/>
       <c r="Q6" s="213"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -21538,7 +21528,7 @@
       <c r="P7" s="213"/>
       <c r="Q7" s="213"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -21563,7 +21553,7 @@
       <c r="P8" s="213"/>
       <c r="Q8" s="213"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -21588,7 +21578,7 @@
       <c r="P9" s="213"/>
       <c r="Q9" s="213"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -21613,7 +21603,7 @@
       <c r="P10" s="213"/>
       <c r="Q10" s="213"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -21638,11 +21628,11 @@
       <c r="P11" s="213"/>
       <c r="Q11" s="213"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="K12" s="52"/>
       <c r="L12" s="54"/>
     </row>
-    <row r="13" spans="2:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
@@ -21660,7 +21650,7 @@
       <c r="P13" s="214"/>
       <c r="Q13" s="214"/>
     </row>
-    <row r="14" spans="2:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="29" t="s">
         <v>1</v>
       </c>
@@ -21707,7 +21697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>42</v>
       </c>
@@ -21754,7 +21744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
@@ -21780,7 +21770,7 @@
       <c r="P16" s="215"/>
       <c r="Q16" s="215"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
         <f t="shared" ref="B17:B23" si="1">K17</f>
         <v>FTE-RSDGAS</v>
@@ -21824,7 +21814,7 @@
       <c r="P17" s="213"/>
       <c r="Q17" s="213"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAOIL</v>
@@ -21866,7 +21856,7 @@
       <c r="P18" s="213"/>
       <c r="Q18" s="213"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCCOA</v>
@@ -21908,7 +21898,7 @@
       <c r="P19" s="213"/>
       <c r="Q19" s="213"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCGAS</v>
@@ -21950,7 +21940,7 @@
       <c r="P20" s="213"/>
       <c r="Q20" s="213"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCOIL</v>
@@ -21992,7 +21982,7 @@
       <c r="P21" s="213"/>
       <c r="Q21" s="213"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCRNW</v>
@@ -22034,7 +22024,7 @@
       <c r="P22" s="213"/>
       <c r="Q22" s="213"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCNUC</v>
@@ -22076,7 +22066,7 @@
       <c r="P23" s="213"/>
       <c r="Q23" s="213"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E24" s="9"/>
       <c r="I24" s="50"/>
       <c r="J24" s="49"/>
@@ -22084,14 +22074,14 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="85"/>
       <c r="C26" s="1" t="s">
         <v>197</v>
@@ -22102,7 +22092,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="130"/>
       <c r="C27" s="1" t="s">
         <v>198</v>
@@ -22113,7 +22103,7 @@
       <c r="P27" s="58"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -22133,47 +22123,47 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AB37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="49" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="49" customWidth="1"/>
     <col min="7" max="7" width="10" style="49" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" style="49" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.26953125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="49" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="49" customWidth="1"/>
     <col min="13" max="13" width="7" style="49" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" style="49" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" style="49" customWidth="1"/>
-    <col min="16" max="16" width="11.7265625" style="49" customWidth="1"/>
-    <col min="17" max="17" width="2.26953125" style="52" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" style="52" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="49" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="49" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" style="52" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="52" customWidth="1"/>
     <col min="19" max="19" width="2" style="52" customWidth="1"/>
-    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1796875" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
     <col min="23" max="23" width="55" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.26953125" customWidth="1"/>
-    <col min="25" max="25" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.81640625" style="49"/>
+    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -22199,7 +22189,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="2:28" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B11</f>
         <v>ELC</v>
@@ -22240,7 +22230,7 @@
       <c r="AA2" s="208"/>
       <c r="AB2" s="208"/>
     </row>
-    <row r="3" spans="2:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="T3" s="209" t="s">
         <v>7</v>
       </c>
@@ -22269,7 +22259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:28" s="51" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:28" s="51" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="60" t="s">
         <v>167</v>
       </c>
@@ -22317,7 +22307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="51" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:28" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="59" t="s">
         <v>173</v>
       </c>
@@ -22362,7 +22352,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="T6" s="214" t="s">
         <v>143</v>
       </c>
@@ -22384,11 +22374,11 @@
       <c r="AA6" s="214"/>
       <c r="AB6" s="214"/>
     </row>
-    <row r="7" spans="2:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="2:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -22416,7 +22406,7 @@
       <c r="AA8" s="208"/>
       <c r="AB8" s="208"/>
     </row>
-    <row r="9" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -22495,7 +22485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:28" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -22572,7 +22562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -22630,7 +22620,7 @@
       <c r="AA11" s="211"/>
       <c r="AB11" s="211"/>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B12" s="49" t="str">
         <f>V12</f>
         <v>ELCTECOA00</v>
@@ -22702,7 +22692,7 @@
       <c r="AA12" s="213"/>
       <c r="AB12" s="213"/>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="D13" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -22745,7 +22735,7 @@
       <c r="AA13" s="213"/>
       <c r="AB13" s="213"/>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B14" s="49" t="str">
         <f>V13</f>
         <v>ELCTEGAS00</v>
@@ -22814,7 +22804,7 @@
       <c r="AA14" s="213"/>
       <c r="AB14" s="213"/>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
       <c r="D15" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -22857,7 +22847,7 @@
       <c r="AA15" s="213"/>
       <c r="AB15" s="213"/>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B16" s="49" t="str">
         <f>V14</f>
         <v>ELCTEOIL00</v>
@@ -22929,7 +22919,7 @@
       <c r="AA16" s="213"/>
       <c r="AB16" s="213"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="D17" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -22976,7 +22966,7 @@
       <c r="AA17" s="213"/>
       <c r="AB17" s="213"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="49" t="str">
         <f>V15</f>
         <v>ELCRERNW00</v>
@@ -23044,7 +23034,7 @@
       <c r="AA18" s="213"/>
       <c r="AB18" s="213"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="188" t="str">
         <f>V16</f>
         <v>ELCTENUC00</v>
@@ -23115,7 +23105,7 @@
       <c r="AA19" s="213"/>
       <c r="AB19" s="213"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20" s="49" t="str">
         <f>V17</f>
         <v>ELCTNCOA00</v>
@@ -23171,7 +23161,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="D21" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -23193,7 +23183,7 @@
       <c r="Q21" s="49"/>
       <c r="R21" s="49"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22" s="49" t="str">
         <f>V18</f>
         <v>ELCTNGAS00</v>
@@ -23237,7 +23227,7 @@
       <c r="Q22" s="49"/>
       <c r="R22" s="49"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="D23" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -23257,7 +23247,7 @@
       <c r="Q23" s="49"/>
       <c r="R23" s="49"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B24" s="49" t="str">
         <f>V19</f>
         <v>ELCTNOIL00</v>
@@ -23301,7 +23291,7 @@
       <c r="Q24" s="49"/>
       <c r="R24" s="49"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="D25" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -23320,16 +23310,16 @@
       <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="R27" s="186"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="R28" s="204"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="R29" s="186"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="R30" s="205"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
@@ -23339,7 +23329,7 @@
       <c r="Y30" s="9"/>
       <c r="Z30" s="16"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="85"/>
       <c r="C31" s="1" t="s">
         <v>197</v>
@@ -23352,7 +23342,7 @@
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B32" s="130"/>
       <c r="C32" s="1" t="s">
         <v>198</v>
@@ -23366,7 +23356,7 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
     </row>
-    <row r="33" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -23375,7 +23365,7 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
     </row>
-    <row r="34" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -23385,7 +23375,7 @@
       <c r="Z34" s="16"/>
       <c r="AA34" s="212"/>
     </row>
-    <row r="35" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -23394,7 +23384,7 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="16"/>
     </row>
-    <row r="36" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
@@ -23403,7 +23393,7 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
     </row>
-    <row r="37" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>

--- a/VT_REG_PRI_V04.xlsx
+++ b/VT_REG_PRI_V04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA_2\Veda_models\demos004_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8718F207-D7B3-4B0D-9CCA-DA65B35142A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06BF976-549C-46C8-933C-4D425253888F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8382,7 +8382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="219">
   <si>
     <t>CommName</t>
   </si>
@@ -9037,6 +9037,9 @@
   <si>
     <t>Reference Energy System</t>
   </si>
+  <si>
+    <t>MINGAS4</t>
+  </si>
 </sst>
 </file>
 
@@ -9651,7 +9654,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10051,6 +10054,7 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -18501,8 +18505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19029,6 +19033,19 @@
       <c r="F16" s="16"/>
       <c r="G16" s="15"/>
       <c r="I16" s="23"/>
+      <c r="K16" s="227" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="227" t="s">
+        <v>218</v>
+      </c>
+      <c r="N16" s="216" t="str">
+        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M16,1)</f>
+        <v>Domestic Supply of Natural Gas Step 4</v>
+      </c>
+      <c r="O16" s="227" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="17" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F17" s="16"/>

--- a/VT_REG_PRI_V04.xlsx
+++ b/VT_REG_PRI_V04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA_2\Veda_models\demos004_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06BF976-549C-46C8-933C-4D425253888F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7575F9BD-18B7-4B79-AA25-7714DB004321}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18505,8 +18505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19027,12 +19027,26 @@
       <c r="T15"/>
     </row>
     <row r="16" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
+      <c r="B16" s="16" t="str">
+        <f>M16</f>
+        <v>MINGAS4</v>
+      </c>
       <c r="C16" s="16"/>
+      <c r="D16" s="16" t="str">
+        <f>$M$5</f>
+        <v>GAS</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-      <c r="I16" s="23"/>
+      <c r="G16" s="133">
+        <v>25000</v>
+      </c>
+      <c r="H16" s="135">
+        <v>5.4</v>
+      </c>
+      <c r="I16" s="133">
+        <v>2000</v>
+      </c>
       <c r="K16" s="227" t="s">
         <v>63</v>
       </c>
